--- a/excel/STARA_MATURA/PODSTAWA/PP2015maj/zad4.xlsx
+++ b/excel/STARA_MATURA/PODSTAWA/PP2015maj/zad4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomasz\Desktop\git_repo\algorithms\excel\PODSTAWA\PP2015maj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomasz\Desktop\git_repo\algorithms\excel\STARA_MATURA\PODSTAWA\PP2015maj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33582CD6-E02E-43BF-B3F5-9F88B06A3362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF00032-077F-4547-AAB4-DED0B14999CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -335,9 +335,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2057,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,7 +2124,7 @@
         <v>203</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="C3:E3" si="0">ROUNDDOWN(D2+D2*3%,0)</f>
+        <f t="shared" ref="D3" si="0">ROUNDDOWN(D2+D2*3%,0)</f>
         <v>305</v>
       </c>
       <c r="E3">
@@ -2223,7 +2223,7 @@
         <v>972</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:J5" si="5">SUM(C2:C5)</f>
+        <f t="shared" ref="H5:I5" si="5">SUM(C2:C5)</f>
         <v>822</v>
       </c>
       <c r="I5">
